--- a/book.xlsx
+++ b/book.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunro_aclp083\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunro_aclp083\OneDrive\Desktop\my-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC84195-EB67-486F-88ED-1FD5DD5689F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C614833-F30B-4B6D-ACBF-E195FA6EE5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="915" windowWidth="23865" windowHeight="13680" xr2:uid="{20E8FF63-13AA-429F-8658-E556C0C6AE53}"/>
   </bookViews>
@@ -217,37 +217,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,33 +578,33 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="10.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5">
@@ -605,34 +615,35 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="7">
         <v>20</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>12</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
         <f>((C$4-C$3)/(B$4-B$3))*B5+C$3-((C$4-C$3)/(B$4-B$3))*B$3</f>
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
